--- a/data/Contact_Recreation/FoxtonLoopatHarbourStBoatRamp_54f0e65440.xlsx
+++ b/data/Contact_Recreation/FoxtonLoopatHarbourStBoatRamp_54f0e65440.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -648,7 +648,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -687,7 +687,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -726,7 +726,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -765,7 +765,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -921,7 +921,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -960,7 +960,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -999,7 +999,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">

--- a/data/Contact_Recreation/FoxtonLoopatHarbourStBoatRamp_54f0e65440.xlsx
+++ b/data/Contact_Recreation/FoxtonLoopatHarbourStBoatRamp_54f0e65440.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="99">
   <si>
     <t>site name</t>
   </si>
@@ -49,208 +49,265 @@
     <t>E. coli</t>
   </si>
   <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>591</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>1317</t>
-  </si>
-  <si>
-    <t>13000</t>
-  </si>
-  <si>
-    <t>3490</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>4610</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
-    <t>412</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>882</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>813</t>
-  </si>
-  <si>
-    <t>432</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>428</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>6870</t>
-  </si>
-  <si>
-    <t>697</t>
-  </si>
-  <si>
-    <t>546</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>364</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>1616</t>
-  </si>
-  <si>
-    <t>2610</t>
-  </si>
-  <si>
-    <t>373</t>
-  </si>
-  <si>
-    <t>369</t>
-  </si>
-  <si>
-    <t>727</t>
-  </si>
-  <si>
-    <t>932</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>616</t>
-  </si>
-  <si>
-    <t>2480</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>473</t>
-  </si>
-  <si>
-    <t>586</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>583</t>
-  </si>
-  <si>
-    <t>1106</t>
-  </si>
-  <si>
-    <t>801</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>487</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>8660</t>
-  </si>
-  <si>
-    <t>5790</t>
-  </si>
-  <si>
-    <t>2064</t>
-  </si>
-  <si>
-    <t>368</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>613</t>
-  </si>
-  <si>
-    <t>422</t>
+    <t>151.0</t>
+  </si>
+  <si>
+    <t>591.0</t>
+  </si>
+  <si>
+    <t>189.0</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>1317.0</t>
+  </si>
+  <si>
+    <t>13000.0</t>
+  </si>
+  <si>
+    <t>3490.0</t>
+  </si>
+  <si>
+    <t>152.0</t>
+  </si>
+  <si>
+    <t>4610.0</t>
+  </si>
+  <si>
+    <t>187.0</t>
+  </si>
+  <si>
+    <t>573.0</t>
+  </si>
+  <si>
+    <t>412.0</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>331.0</t>
+  </si>
+  <si>
+    <t>882.0</t>
+  </si>
+  <si>
+    <t>410.0</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>813.0</t>
+  </si>
+  <si>
+    <t>432.0</t>
+  </si>
+  <si>
+    <t>102.0</t>
+  </si>
+  <si>
+    <t>428.0</t>
+  </si>
+  <si>
+    <t>122.0</t>
+  </si>
+  <si>
+    <t>243.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>203.0</t>
+  </si>
+  <si>
+    <t>379.0</t>
+  </si>
+  <si>
+    <t>6870.0</t>
+  </si>
+  <si>
+    <t>697.0</t>
+  </si>
+  <si>
+    <t>546.0</t>
+  </si>
+  <si>
+    <t>228.0</t>
+  </si>
+  <si>
+    <t>265.0</t>
+  </si>
+  <si>
+    <t>364.0</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>148.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>158.0</t>
+  </si>
+  <si>
+    <t>295.0</t>
+  </si>
+  <si>
+    <t>1616.0</t>
+  </si>
+  <si>
+    <t>2610.0</t>
+  </si>
+  <si>
+    <t>373.0</t>
+  </si>
+  <si>
+    <t>369.0</t>
+  </si>
+  <si>
+    <t>727.0</t>
+  </si>
+  <si>
+    <t>932.0</t>
+  </si>
+  <si>
+    <t>318.0</t>
+  </si>
+  <si>
+    <t>616.0</t>
+  </si>
+  <si>
+    <t>2480.0</t>
+  </si>
+  <si>
+    <t>241.0</t>
+  </si>
+  <si>
+    <t>473.0</t>
+  </si>
+  <si>
+    <t>586.0</t>
+  </si>
+  <si>
+    <t>231.0</t>
+  </si>
+  <si>
+    <t>171.0</t>
+  </si>
+  <si>
+    <t>246.0</t>
+  </si>
+  <si>
+    <t>583.0</t>
+  </si>
+  <si>
+    <t>1106.0</t>
+  </si>
+  <si>
+    <t>801.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>487.0</t>
+  </si>
+  <si>
+    <t>262.0</t>
+  </si>
+  <si>
+    <t>8660.0</t>
+  </si>
+  <si>
+    <t>5790.0</t>
+  </si>
+  <si>
+    <t>2064.0</t>
+  </si>
+  <si>
+    <t>368.0</t>
+  </si>
+  <si>
+    <t>108.0</t>
+  </si>
+  <si>
+    <t>613.0</t>
+  </si>
+  <si>
+    <t>422.0</t>
+  </si>
+  <si>
+    <t>1281.0</t>
+  </si>
+  <si>
+    <t>27.6</t>
+  </si>
+  <si>
+    <t>684.0</t>
+  </si>
+  <si>
+    <t>269.0</t>
+  </si>
+  <si>
+    <t>288.0</t>
+  </si>
+  <si>
+    <t>620.0</t>
+  </si>
+  <si>
+    <t>292.0</t>
+  </si>
+  <si>
+    <t>169.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>259.0</t>
+  </si>
+  <si>
+    <t>414.0</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>556.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>226.0</t>
+  </si>
+  <si>
+    <t>717.0</t>
+  </si>
+  <si>
+    <t>677.0</t>
+  </si>
+  <si>
+    <t>233.0</t>
   </si>
   <si>
     <t>Science - Contact Recreation</t>
   </si>
   <si>
     <t>APHA 23rd Ed. 9223 B</t>
+  </si>
+  <si>
+    <t>SMEWW 9223B</t>
   </si>
   <si>
     <t>MPN/100mL</t>
@@ -615,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,13 +721,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H2">
         <v>600</v>
@@ -690,13 +747,13 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H3">
         <v>600</v>
@@ -716,13 +773,13 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H4">
         <v>600</v>
@@ -742,13 +799,13 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H5">
         <v>600</v>
@@ -768,13 +825,13 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H6">
         <v>600</v>
@@ -794,13 +851,13 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H7">
         <v>600</v>
@@ -820,13 +877,13 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H8">
         <v>600</v>
@@ -846,13 +903,13 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H9">
         <v>600</v>
@@ -872,13 +929,13 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H10">
         <v>600</v>
@@ -898,13 +955,13 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H11">
         <v>600</v>
@@ -924,13 +981,13 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H12">
         <v>600</v>
@@ -950,13 +1007,13 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H13">
         <v>600</v>
@@ -976,13 +1033,13 @@
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H14">
         <v>600</v>
@@ -1002,13 +1059,13 @@
         <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H15">
         <v>600</v>
@@ -1028,13 +1085,13 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H16">
         <v>600</v>
@@ -1054,13 +1111,13 @@
         <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H17">
         <v>600</v>
@@ -1080,13 +1137,13 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H18">
         <v>600</v>
@@ -1106,13 +1163,13 @@
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H19">
         <v>600</v>
@@ -1132,13 +1189,13 @@
         <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H20">
         <v>600</v>
@@ -1158,13 +1215,13 @@
         <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H21">
         <v>600</v>
@@ -1184,13 +1241,13 @@
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G22" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H22">
         <v>600</v>
@@ -1210,13 +1267,13 @@
         <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H23">
         <v>600</v>
@@ -1236,13 +1293,13 @@
         <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H24">
         <v>600</v>
@@ -1262,13 +1319,13 @@
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G25" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H25">
         <v>600</v>
@@ -1288,13 +1345,13 @@
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G26" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H26">
         <v>600</v>
@@ -1314,13 +1371,13 @@
         <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H27">
         <v>600</v>
@@ -1340,13 +1397,13 @@
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G28" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H28">
         <v>600</v>
@@ -1366,13 +1423,13 @@
         <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G29" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H29">
         <v>600</v>
@@ -1392,13 +1449,13 @@
         <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F30" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G30" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H30">
         <v>600</v>
@@ -1418,13 +1475,13 @@
         <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H31">
         <v>600</v>
@@ -1444,13 +1501,13 @@
         <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G32" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H32">
         <v>600</v>
@@ -1470,13 +1527,13 @@
         <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F33" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G33" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H33">
         <v>600</v>
@@ -1496,13 +1553,13 @@
         <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G34" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H34">
         <v>600</v>
@@ -1522,13 +1579,13 @@
         <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F35" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G35" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H35">
         <v>600</v>
@@ -1548,13 +1605,13 @@
         <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F36" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G36" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H36">
         <v>600</v>
@@ -1574,13 +1631,13 @@
         <v>44</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F37" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G37" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H37">
         <v>600</v>
@@ -1600,13 +1657,13 @@
         <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G38" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H38">
         <v>600</v>
@@ -1626,13 +1683,13 @@
         <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G39" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H39">
         <v>600</v>
@@ -1652,13 +1709,13 @@
         <v>47</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G40" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H40">
         <v>600</v>
@@ -1678,13 +1735,13 @@
         <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G41" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H41">
         <v>600</v>
@@ -1704,13 +1761,13 @@
         <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G42" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H42">
         <v>600</v>
@@ -1730,13 +1787,13 @@
         <v>50</v>
       </c>
       <c r="E43" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G43" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H43">
         <v>600</v>
@@ -1756,13 +1813,13 @@
         <v>34</v>
       </c>
       <c r="E44" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F44" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G44" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H44">
         <v>600</v>
@@ -1782,13 +1839,13 @@
         <v>51</v>
       </c>
       <c r="E45" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F45" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G45" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H45">
         <v>600</v>
@@ -1808,13 +1865,13 @@
         <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F46" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G46" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H46">
         <v>600</v>
@@ -1834,13 +1891,13 @@
         <v>53</v>
       </c>
       <c r="E47" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F47" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G47" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H47">
         <v>600</v>
@@ -1860,13 +1917,13 @@
         <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F48" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G48" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H48">
         <v>600</v>
@@ -1886,13 +1943,13 @@
         <v>54</v>
       </c>
       <c r="E49" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G49" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H49">
         <v>600</v>
@@ -1912,13 +1969,13 @@
         <v>55</v>
       </c>
       <c r="E50" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G50" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H50">
         <v>600</v>
@@ -1938,13 +1995,13 @@
         <v>56</v>
       </c>
       <c r="E51" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G51" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H51">
         <v>600</v>
@@ -1964,13 +2021,13 @@
         <v>57</v>
       </c>
       <c r="E52" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F52" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G52" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H52">
         <v>600</v>
@@ -1990,13 +2047,13 @@
         <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F53" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G53" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H53">
         <v>600</v>
@@ -2016,13 +2073,13 @@
         <v>58</v>
       </c>
       <c r="E54" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G54" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H54">
         <v>600</v>
@@ -2042,13 +2099,13 @@
         <v>53</v>
       </c>
       <c r="E55" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F55" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G55" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H55">
         <v>600</v>
@@ -2068,13 +2125,13 @@
         <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G56" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H56">
         <v>600</v>
@@ -2094,13 +2151,13 @@
         <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F57" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G57" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H57">
         <v>600</v>
@@ -2120,13 +2177,13 @@
         <v>60</v>
       </c>
       <c r="E58" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G58" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H58">
         <v>600</v>
@@ -2146,13 +2203,13 @@
         <v>61</v>
       </c>
       <c r="E59" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F59" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G59" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H59">
         <v>600</v>
@@ -2172,13 +2229,13 @@
         <v>33</v>
       </c>
       <c r="E60" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F60" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G60" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H60">
         <v>600</v>
@@ -2198,13 +2255,13 @@
         <v>62</v>
       </c>
       <c r="E61" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F61" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G61" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H61">
         <v>600</v>
@@ -2224,13 +2281,13 @@
         <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F62" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G62" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H62">
         <v>600</v>
@@ -2250,13 +2307,13 @@
         <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G63" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H63">
         <v>600</v>
@@ -2276,13 +2333,13 @@
         <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G64" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H64">
         <v>600</v>
@@ -2302,13 +2359,13 @@
         <v>66</v>
       </c>
       <c r="E65" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G65" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H65">
         <v>600</v>
@@ -2328,13 +2385,13 @@
         <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G66" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H66">
         <v>600</v>
@@ -2354,13 +2411,13 @@
         <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F67" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G67" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H67">
         <v>600</v>
@@ -2380,13 +2437,13 @@
         <v>69</v>
       </c>
       <c r="E68" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F68" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G68" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H68">
         <v>600</v>
@@ -2406,13 +2463,13 @@
         <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F69" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G69" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H69">
         <v>600</v>
@@ -2432,13 +2489,13 @@
         <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F70" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G70" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H70">
         <v>600</v>
@@ -2458,13 +2515,13 @@
         <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F71" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G71" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H71">
         <v>600</v>
@@ -2484,13 +2541,13 @@
         <v>35</v>
       </c>
       <c r="E72" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F72" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G72" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H72">
         <v>600</v>
@@ -2510,13 +2567,13 @@
         <v>73</v>
       </c>
       <c r="E73" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F73" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G73" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H73">
         <v>600</v>
@@ -2536,13 +2593,13 @@
         <v>74</v>
       </c>
       <c r="E74" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F74" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G74" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H74">
         <v>600</v>
@@ -2562,13 +2619,13 @@
         <v>75</v>
       </c>
       <c r="E75" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F75" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G75" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H75">
         <v>600</v>
@@ -2588,13 +2645,13 @@
         <v>58</v>
       </c>
       <c r="E76" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F76" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G76" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H76">
         <v>600</v>
@@ -2614,15 +2671,665 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F77" t="s">
+        <v>96</v>
+      </c>
+      <c r="G77" t="s">
+        <v>98</v>
+      </c>
+      <c r="H77">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="2">
+        <v>45600.50555555556</v>
+      </c>
+      <c r="D78" t="s">
         <v>77</v>
       </c>
-      <c r="F77" t="s">
+      <c r="E78" t="s">
+        <v>95</v>
+      </c>
+      <c r="F78" t="s">
+        <v>97</v>
+      </c>
+      <c r="G78" t="s">
+        <v>98</v>
+      </c>
+      <c r="H78">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="2">
+        <v>45607.51736111111</v>
+      </c>
+      <c r="D79" t="s">
         <v>78</v>
       </c>
-      <c r="G77" t="s">
+      <c r="E79" t="s">
+        <v>95</v>
+      </c>
+      <c r="F79" t="s">
+        <v>97</v>
+      </c>
+      <c r="G79" t="s">
+        <v>98</v>
+      </c>
+      <c r="H79">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="2">
+        <v>45614.52430555555</v>
+      </c>
+      <c r="D80" t="s">
         <v>79</v>
       </c>
-      <c r="H77">
+      <c r="E80" t="s">
+        <v>95</v>
+      </c>
+      <c r="F80" t="s">
+        <v>97</v>
+      </c>
+      <c r="G80" t="s">
+        <v>98</v>
+      </c>
+      <c r="H80">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="2">
+        <v>45621.55416666667</v>
+      </c>
+      <c r="D81" t="s">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>95</v>
+      </c>
+      <c r="F81" t="s">
+        <v>97</v>
+      </c>
+      <c r="G81" t="s">
+        <v>98</v>
+      </c>
+      <c r="H81">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="2">
+        <v>45635.55277777778</v>
+      </c>
+      <c r="D82" t="s">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>95</v>
+      </c>
+      <c r="F82" t="s">
+        <v>97</v>
+      </c>
+      <c r="G82" t="s">
+        <v>98</v>
+      </c>
+      <c r="H82">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="2">
+        <v>45642.51597222222</v>
+      </c>
+      <c r="D83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" t="s">
+        <v>95</v>
+      </c>
+      <c r="F83" t="s">
+        <v>97</v>
+      </c>
+      <c r="G83" t="s">
+        <v>98</v>
+      </c>
+      <c r="H83">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="2">
+        <v>45649.49305555555</v>
+      </c>
+      <c r="D84" t="s">
+        <v>32</v>
+      </c>
+      <c r="E84" t="s">
+        <v>95</v>
+      </c>
+      <c r="F84" t="s">
+        <v>97</v>
+      </c>
+      <c r="G84" t="s">
+        <v>98</v>
+      </c>
+      <c r="H84">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="2">
+        <v>45656.58958333333</v>
+      </c>
+      <c r="D85" t="s">
+        <v>82</v>
+      </c>
+      <c r="E85" t="s">
+        <v>95</v>
+      </c>
+      <c r="F85" t="s">
+        <v>97</v>
+      </c>
+      <c r="G85" t="s">
+        <v>98</v>
+      </c>
+      <c r="H85">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="2">
+        <v>45663.51944444444</v>
+      </c>
+      <c r="D86" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" t="s">
+        <v>95</v>
+      </c>
+      <c r="F86" t="s">
+        <v>97</v>
+      </c>
+      <c r="G86" t="s">
+        <v>98</v>
+      </c>
+      <c r="H86">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="2">
+        <v>45670.52013888889</v>
+      </c>
+      <c r="D87" t="s">
+        <v>83</v>
+      </c>
+      <c r="E87" t="s">
+        <v>95</v>
+      </c>
+      <c r="F87" t="s">
+        <v>97</v>
+      </c>
+      <c r="G87" t="s">
+        <v>98</v>
+      </c>
+      <c r="H87">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="2">
+        <v>45678.52569444444</v>
+      </c>
+      <c r="D88" t="s">
+        <v>84</v>
+      </c>
+      <c r="E88" t="s">
+        <v>95</v>
+      </c>
+      <c r="F88" t="s">
+        <v>97</v>
+      </c>
+      <c r="G88" t="s">
+        <v>98</v>
+      </c>
+      <c r="H88">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="2">
+        <v>45685.52291666667</v>
+      </c>
+      <c r="D89" t="s">
+        <v>85</v>
+      </c>
+      <c r="E89" t="s">
+        <v>95</v>
+      </c>
+      <c r="F89" t="s">
+        <v>97</v>
+      </c>
+      <c r="G89" t="s">
+        <v>98</v>
+      </c>
+      <c r="H89">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="2">
+        <v>45691.5125</v>
+      </c>
+      <c r="D90" t="s">
+        <v>86</v>
+      </c>
+      <c r="E90" t="s">
+        <v>95</v>
+      </c>
+      <c r="F90" t="s">
+        <v>97</v>
+      </c>
+      <c r="G90" t="s">
+        <v>98</v>
+      </c>
+      <c r="H90">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="2">
+        <v>45698.53333333333</v>
+      </c>
+      <c r="D91" t="s">
+        <v>87</v>
+      </c>
+      <c r="E91" t="s">
+        <v>95</v>
+      </c>
+      <c r="F91" t="s">
+        <v>97</v>
+      </c>
+      <c r="G91" t="s">
+        <v>98</v>
+      </c>
+      <c r="H91">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="2">
+        <v>45705.51180555556</v>
+      </c>
+      <c r="D92" t="s">
+        <v>63</v>
+      </c>
+      <c r="E92" t="s">
+        <v>95</v>
+      </c>
+      <c r="F92" t="s">
+        <v>97</v>
+      </c>
+      <c r="G92" t="s">
+        <v>98</v>
+      </c>
+      <c r="H92">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="2">
+        <v>45712.52847222222</v>
+      </c>
+      <c r="D93" t="s">
+        <v>88</v>
+      </c>
+      <c r="E93" t="s">
+        <v>95</v>
+      </c>
+      <c r="F93" t="s">
+        <v>97</v>
+      </c>
+      <c r="G93" t="s">
+        <v>98</v>
+      </c>
+      <c r="H93">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="2">
+        <v>45719.48402777778</v>
+      </c>
+      <c r="D94" t="s">
+        <v>89</v>
+      </c>
+      <c r="E94" t="s">
+        <v>95</v>
+      </c>
+      <c r="F94" t="s">
+        <v>97</v>
+      </c>
+      <c r="G94" t="s">
+        <v>98</v>
+      </c>
+      <c r="H94">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="2">
+        <v>45726.52291666667</v>
+      </c>
+      <c r="D95" t="s">
+        <v>88</v>
+      </c>
+      <c r="E95" t="s">
+        <v>95</v>
+      </c>
+      <c r="F95" t="s">
+        <v>97</v>
+      </c>
+      <c r="G95" t="s">
+        <v>98</v>
+      </c>
+      <c r="H95">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="2">
+        <v>45733.53472222222</v>
+      </c>
+      <c r="D96" t="s">
+        <v>90</v>
+      </c>
+      <c r="E96" t="s">
+        <v>95</v>
+      </c>
+      <c r="F96" t="s">
+        <v>97</v>
+      </c>
+      <c r="G96" t="s">
+        <v>98</v>
+      </c>
+      <c r="H96">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="2">
+        <v>45740.49930555555</v>
+      </c>
+      <c r="D97" t="s">
+        <v>90</v>
+      </c>
+      <c r="E97" t="s">
+        <v>95</v>
+      </c>
+      <c r="F97" t="s">
+        <v>97</v>
+      </c>
+      <c r="G97" t="s">
+        <v>98</v>
+      </c>
+      <c r="H97">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="2">
+        <v>45747.51597222222</v>
+      </c>
+      <c r="D98" t="s">
+        <v>91</v>
+      </c>
+      <c r="E98" t="s">
+        <v>95</v>
+      </c>
+      <c r="F98" t="s">
+        <v>97</v>
+      </c>
+      <c r="G98" t="s">
+        <v>98</v>
+      </c>
+      <c r="H98">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="2">
+        <v>45754.56944444445</v>
+      </c>
+      <c r="D99" t="s">
+        <v>92</v>
+      </c>
+      <c r="E99" t="s">
+        <v>95</v>
+      </c>
+      <c r="F99" t="s">
+        <v>97</v>
+      </c>
+      <c r="G99" t="s">
+        <v>98</v>
+      </c>
+      <c r="H99">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="2">
+        <v>45761.53194444445</v>
+      </c>
+      <c r="D100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" t="s">
+        <v>95</v>
+      </c>
+      <c r="F100" t="s">
+        <v>97</v>
+      </c>
+      <c r="G100" t="s">
+        <v>98</v>
+      </c>
+      <c r="H100">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="2">
+        <v>45770.52013888889</v>
+      </c>
+      <c r="D101" t="s">
+        <v>93</v>
+      </c>
+      <c r="E101" t="s">
+        <v>95</v>
+      </c>
+      <c r="F101" t="s">
+        <v>97</v>
+      </c>
+      <c r="G101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H101">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="2">
+        <v>45775.55</v>
+      </c>
+      <c r="D102" t="s">
+        <v>94</v>
+      </c>
+      <c r="E102" t="s">
+        <v>95</v>
+      </c>
+      <c r="F102" t="s">
+        <v>97</v>
+      </c>
+      <c r="G102" t="s">
+        <v>98</v>
+      </c>
+      <c r="H102">
         <v>600</v>
       </c>
     </row>
